--- a/utility/test.xlsx
+++ b/utility/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SusmitSurwade\IdeaProjects\orange_hrms_trial_app\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB8D19-B0A8-4978-A85B-4E40D99FF804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3BEEEE-79D4-41C7-8F10-C22F59BFA4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <t>Belgian</t>
   </si>
   <si>
-    <t>@YhQgiB5W2</t>
+    <t>AW@pB1ssA1</t>
   </si>
 </sst>
 </file>
@@ -113,9 +113,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF757575"/>
-      <name val="Helvetica"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,17 +138,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,7 +432,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,6 +514,9 @@
       <formula1>"firefox,chrome"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{878FA5E7-FDAF-45DD-A925-3EB76FBD5837}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/utility/test.xlsx
+++ b/utility/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SusmitSurwade\IdeaProjects\orange_hrms_trial_app\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3BEEEE-79D4-41C7-8F10-C22F59BFA4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98DC18-741C-4B47-9774-6879954267E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>Belgian</t>
   </si>
   <si>
-    <t>AW@pB1ssA1</t>
+    <t>aH5o@UmNP5</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,6 +440,7 @@
     <col min="1" max="1" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="12.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
